--- a/30-01-2020-Plan-Project-Book Meeting Room-เซฟ.xlsx
+++ b/30-01-2020-Plan-Project-Book Meeting Room-เซฟ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC2A2B8-9911-4FF8-A01E-D4A35E626082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5F82C4-1FCF-44CC-9764-007ECF2BC2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2423,8 +2423,8 @@
   </sheetPr>
   <dimension ref="A1:BO41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5533,7 +5533,7 @@
         <v>49</v>
       </c>
       <c r="E23" s="44">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F23" s="92">
         <f t="shared" si="12"/>
@@ -6417,7 +6417,7 @@
         <v>49</v>
       </c>
       <c r="E33" s="48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F33" s="41">
         <f>F32</f>
@@ -6430,14 +6430,16 @@
       <c r="H33" s="42">
         <v>15</v>
       </c>
-      <c r="I33" s="41"/>
+      <c r="I33" s="41">
+        <v>43865</v>
+      </c>
       <c r="J33" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I33-Milestones[[#This Row],[End Date]])</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K33" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I33-G33&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L33" s="38"/>
       <c r="M33" s="11"/>
